--- a/src/Verno.Portal.Web/ReportTemplates/BakeCalculator.xlsx
+++ b/src/Verno.Portal.Web/ReportTemplates/BakeCalculator.xlsx
@@ -2,19 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28635" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="table">Лист1!$A$6:$J$7</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Магазин</t>
   </si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>Конечный остаток в магазине, шт.</t>
+  </si>
+  <si>
+    <t>OnlyValues</t>
   </si>
 </sst>
 </file>
@@ -47,7 +53,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -122,6 +128,13 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -208,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -232,9 +245,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -246,20 +256,11 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -269,20 +270,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="30"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b val="0"/>
@@ -582,14 +590,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="H6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
+    <col min="1" max="1" width="1.1640625" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
@@ -615,7 +625,9 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="1"/>
+      <c r="A2" s="22" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -645,111 +657,111 @@
     </row>
     <row r="4" spans="1:10" ht="12">
       <c r="A4" s="1"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="45">
       <c r="A5" s="1"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="14" t="str">
-        <f ca="1">CONCATENATE("Реализация шт. за ",TEXT(TODAY()-7,"ДД.ММ.ГГГГ"))</f>
-        <v>Реализация шт. за 09.12.2016</v>
-      </c>
-      <c r="G5" s="14" t="str">
-        <f ca="1">CONCATENATE("Списания шт. за ",TEXT(TODAY()-7,"ДД.ММ.ГГГГ"))</f>
-        <v>Списания шт. за 09.12.2016</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="F5" s="13" t="str">
+        <f ca="1">CONCATENATE("Реализация шт. за ",TEXT(TODAY()-7,"dd.MM.yyyy"))</f>
+        <v>Реализация шт. за dd.MM.yyyy</v>
+      </c>
+      <c r="G5" s="13" t="str">
+        <f ca="1">CONCATENATE("Списания шт. за ",TEXT(TODAY()-7,"dd.MM.yyyy"))</f>
+        <v>Списания шт. за dd.MM.yyyy</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="24" t="str">
-        <f ca="1">CONCATENATE("ВЫПЕЧЬ, шт ",TEXT(TODAY(),"ДД.ММ.ГГГГ"))</f>
-        <v>ВЫПЕЧЬ, шт 16.12.2016</v>
+      <c r="J5" s="20" t="str">
+        <f ca="1">CONCATENATE("ВЫПЕЧЬ, шт ",TEXT(TODAY(),"dd.MM.yyyy"))</f>
+        <v>ВЫПЕЧЬ, шт dd.MM.yyyy</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="11.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="15" t="e">
+      <c r="B6" s="14" t="e">
         <f>_vidTovara</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="16" t="e">
+      <c r="C6" s="26" t="e">
         <f>_shtrixKod</f>
         <v>#NAME?</v>
       </c>
-      <c r="D6" s="16" t="e">
+      <c r="D6" s="15" t="e">
         <f>_naimenovanie</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="25" t="e">
+      <c r="E6" s="21" t="e">
         <f>_normativ</f>
         <v>#NAME?</v>
       </c>
-      <c r="F6" s="25" t="e">
+      <c r="F6" s="21" t="e">
         <f>_realizSht</f>
         <v>#NAME?</v>
       </c>
-      <c r="G6" s="25" t="e">
+      <c r="G6" s="21" t="e">
         <f>_spisSht</f>
         <v>#NAME?</v>
       </c>
-      <c r="H6" s="17" t="e">
+      <c r="H6" s="27" t="e">
         <f>_koeff</f>
         <v>#NAME?</v>
       </c>
-      <c r="I6" s="17" t="e">
+      <c r="I6" s="27" t="e">
         <f>_ostSht</f>
         <v>#NAME?</v>
       </c>
-      <c r="J6" s="17" t="e">
+      <c r="J6" s="27" t="e">
         <f>_tobake</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12">
       <c r="A7" s="1"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" ht="12">
       <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="11.25">
       <c r="A9" s="1"/>
@@ -758,15 +770,15 @@
     </row>
     <row r="10" spans="1:10" ht="12">
       <c r="A10" s="1"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="I11" s="23"/>
+      <c r="I11" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:G6">
@@ -775,6 +787,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Verno.Portal.Web/ReportTemplates/BakeCalculator.xlsx
+++ b/src/Verno.Portal.Web/ReportTemplates/BakeCalculator.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Магазин</t>
   </si>
@@ -43,7 +43,37 @@
     <t>Конечный остаток в магазине, шт.</t>
   </si>
   <si>
-    <t>OnlyValues</t>
+    <t>{{shopNum}}</t>
+  </si>
+  <si>
+    <t>{{item.VidTovara}}</t>
+  </si>
+  <si>
+    <t>{{item.ShtrixKod}}</t>
+  </si>
+  <si>
+    <t>{{item.Naimenovanie}}</t>
+  </si>
+  <si>
+    <t>{{item.Normativ}}</t>
+  </si>
+  <si>
+    <t>{{item.RealizSht}}</t>
+  </si>
+  <si>
+    <t>{{item.SpisSht}}</t>
+  </si>
+  <si>
+    <t>{{item.Koeff}}</t>
+  </si>
+  <si>
+    <t>{{item.OstSht}}</t>
+  </si>
+  <si>
+    <t>{{item.ToBake}}</t>
+  </si>
+  <si>
+    <t>&lt;&lt;OnlyValues&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -53,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -128,13 +158,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -270,7 +293,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -286,11 +308,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -594,7 +624,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="H6:J6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -625,8 +655,8 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="22" t="s">
-        <v>8</v>
+      <c r="A2" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -643,9 +673,8 @@
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="e">
-        <f>shopNum</f>
-        <v>#NAME?</v>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -702,41 +731,32 @@
     </row>
     <row r="6" spans="1:10" ht="11.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="14" t="e">
-        <f>_vidTovara</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C6" s="26" t="e">
-        <f>_shtrixKod</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D6" s="15" t="e">
-        <f>_naimenovanie</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E6" s="21" t="e">
-        <f>_normativ</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F6" s="21" t="e">
-        <f>_realizSht</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="21" t="e">
-        <f>_spisSht</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="27" t="e">
-        <f>_koeff</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I6" s="27" t="e">
-        <f>_ostSht</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J6" s="27" t="e">
-        <f>_tobake</f>
-        <v>#NAME?</v>
+      <c r="B6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12">
@@ -770,11 +790,11 @@
     </row>
     <row r="10" spans="1:10" ht="12">
       <c r="A10" s="1"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:10">
@@ -782,8 +802,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:G6">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$G6="Visa"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:J6">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
